--- a/public/Siswa/siswa.xlsx
+++ b/public/Siswa/siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SelaAulia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F4401C-22C1-488C-8399-E0C0F3AA03D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B48BFFD-39DC-4C06-BD3D-D60FF0ABA90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,13 +41,13 @@
     <t>06</t>
   </si>
   <si>
-    <t>Selamanya</t>
-  </si>
-  <si>
-    <t>Sela on 7</t>
-  </si>
-  <si>
-    <t>diva ardhia dua</t>
+    <t>Selamanya 2</t>
+  </si>
+  <si>
+    <t>Sela on 7 krknfk</t>
+  </si>
+  <si>
+    <t>diva ardhia duacjnjkrf</t>
   </si>
 </sst>
 </file>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,54 +403,45 @@
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="D2">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
